--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.465847333333333</v>
+        <v>2.111846333333333</v>
       </c>
       <c r="H2">
-        <v>4.397542</v>
+        <v>6.335539</v>
       </c>
       <c r="I2">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="J2">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>181.5963696666666</v>
+        <v>172.8922906666667</v>
       </c>
       <c r="N2">
-        <v>544.7891089999999</v>
+        <v>518.676872</v>
       </c>
       <c r="O2">
-        <v>0.361289261089317</v>
+        <v>0.3392537931509703</v>
       </c>
       <c r="P2">
-        <v>0.361289261089317</v>
+        <v>0.3392537931509703</v>
       </c>
       <c r="Q2">
-        <v>266.1925542188975</v>
+        <v>365.1219501060009</v>
       </c>
       <c r="R2">
-        <v>2395.732987970077</v>
+        <v>3286.097550954008</v>
       </c>
       <c r="S2">
-        <v>0.007940261331316263</v>
+        <v>0.006479348995348742</v>
       </c>
       <c r="T2">
-        <v>0.007940261331316263</v>
+        <v>0.006479348995348742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.465847333333333</v>
+        <v>2.111846333333333</v>
       </c>
       <c r="H3">
-        <v>4.397542</v>
+        <v>6.335539</v>
       </c>
       <c r="I3">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="J3">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>611.409592</v>
       </c>
       <c r="O3">
-        <v>0.4054701462774667</v>
+        <v>0.3999079859779965</v>
       </c>
       <c r="P3">
-        <v>0.4054701462774667</v>
+        <v>0.3999079859779965</v>
       </c>
       <c r="Q3">
-        <v>298.7443733358737</v>
+        <v>430.4010350100097</v>
       </c>
       <c r="R3">
-        <v>2688.699360022864</v>
+        <v>3873.609315090088</v>
       </c>
       <c r="S3">
-        <v>0.008911249987843376</v>
+        <v>0.007637772839949926</v>
       </c>
       <c r="T3">
-        <v>0.008911249987843376</v>
+        <v>0.007637772839949926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.465847333333333</v>
+        <v>2.111846333333333</v>
       </c>
       <c r="H4">
-        <v>4.397542</v>
+        <v>6.335539</v>
       </c>
       <c r="I4">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="J4">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.26896899999998</v>
+        <v>99.55997466666668</v>
       </c>
       <c r="N4">
-        <v>264.806907</v>
+        <v>298.679924</v>
       </c>
       <c r="O4">
-        <v>0.175612709910795</v>
+        <v>0.1953591968817216</v>
       </c>
       <c r="P4">
-        <v>0.175612709910795</v>
+        <v>0.1953591968817216</v>
       </c>
       <c r="Q4">
-        <v>129.3888328247326</v>
+        <v>210.2553674465596</v>
       </c>
       <c r="R4">
-        <v>1164.499495422594</v>
+        <v>1892.298307019036</v>
       </c>
       <c r="S4">
-        <v>0.003859541259510682</v>
+        <v>0.003731131210917457</v>
       </c>
       <c r="T4">
-        <v>0.003859541259510682</v>
+        <v>0.003731131210917457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.465847333333333</v>
+        <v>2.111846333333333</v>
       </c>
       <c r="H5">
-        <v>4.397542</v>
+        <v>6.335539</v>
       </c>
       <c r="I5">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="J5">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.96574966666667</v>
+        <v>33.36976233333333</v>
       </c>
       <c r="N5">
-        <v>86.897249</v>
+        <v>100.109287</v>
       </c>
       <c r="O5">
-        <v>0.0576278827224213</v>
+        <v>0.06547902398931163</v>
       </c>
       <c r="P5">
-        <v>0.05762788272242129</v>
+        <v>0.06547902398931162</v>
       </c>
       <c r="Q5">
-        <v>42.45936690688422</v>
+        <v>70.47181022785477</v>
       </c>
       <c r="R5">
-        <v>382.134302161958</v>
+        <v>634.246292050693</v>
       </c>
       <c r="S5">
-        <v>0.001266521034715584</v>
+        <v>0.001250572453033011</v>
       </c>
       <c r="T5">
-        <v>0.001266521034715584</v>
+        <v>0.001250572453033011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.92481233333334</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H6">
         <v>155.774437</v>
       </c>
       <c r="I6">
-        <v>0.7785131230699434</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="J6">
-        <v>0.7785131230699435</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>181.5963696666666</v>
+        <v>172.8922906666667</v>
       </c>
       <c r="N6">
-        <v>544.7891089999999</v>
+        <v>518.676872</v>
       </c>
       <c r="O6">
-        <v>0.361289261089317</v>
+        <v>0.3392537931509703</v>
       </c>
       <c r="P6">
-        <v>0.361289261089317</v>
+        <v>0.3392537931509703</v>
       </c>
       <c r="Q6">
-        <v>9429.357415356291</v>
+        <v>8977.399746746783</v>
       </c>
       <c r="R6">
-        <v>84864.21673820663</v>
+        <v>80796.59772072105</v>
       </c>
       <c r="S6">
-        <v>0.2812684309822763</v>
+        <v>0.1593103510020167</v>
       </c>
       <c r="T6">
-        <v>0.2812684309822764</v>
+        <v>0.1593103510020167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.92481233333334</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H7">
         <v>155.774437</v>
       </c>
       <c r="I7">
-        <v>0.7785131230699434</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="J7">
-        <v>0.7785131230699435</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>611.409592</v>
       </c>
       <c r="O7">
-        <v>0.4054701462774667</v>
+        <v>0.3999079859779965</v>
       </c>
       <c r="P7">
-        <v>0.4054701462774667</v>
+        <v>0.3999079859779965</v>
       </c>
       <c r="Q7">
         <v>10582.44277446663</v>
       </c>
       <c r="R7">
-        <v>95241.9849701997</v>
+        <v>95241.98497019969</v>
       </c>
       <c r="S7">
-        <v>0.3156638298900974</v>
+        <v>0.1877929824245562</v>
       </c>
       <c r="T7">
-        <v>0.3156638298900974</v>
+        <v>0.1877929824245562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.92481233333334</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H8">
         <v>155.774437</v>
       </c>
       <c r="I8">
-        <v>0.7785131230699434</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="J8">
-        <v>0.7785131230699435</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.26896899999998</v>
+        <v>99.55997466666668</v>
       </c>
       <c r="N8">
-        <v>264.806907</v>
+        <v>298.679924</v>
       </c>
       <c r="O8">
-        <v>0.175612709910795</v>
+        <v>0.1953591968817216</v>
       </c>
       <c r="P8">
-        <v>0.175612709910795</v>
+        <v>0.1953591968817216</v>
       </c>
       <c r="Q8">
-        <v>4583.349650181817</v>
+        <v>5169.633000478088</v>
       </c>
       <c r="R8">
-        <v>41250.14685163635</v>
+        <v>46526.69700430278</v>
       </c>
       <c r="S8">
-        <v>0.136716799243429</v>
+        <v>0.09173881871041992</v>
       </c>
       <c r="T8">
-        <v>0.136716799243429</v>
+        <v>0.09173881871041992</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.92481233333334</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H9">
         <v>155.774437</v>
       </c>
       <c r="I9">
-        <v>0.7785131230699434</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="J9">
-        <v>0.7785131230699435</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.96574966666667</v>
+        <v>33.36976233333333</v>
       </c>
       <c r="N9">
-        <v>86.897249</v>
+        <v>100.109287</v>
       </c>
       <c r="O9">
-        <v>0.0576278827224213</v>
+        <v>0.06547902398931163</v>
       </c>
       <c r="P9">
-        <v>0.05762788272242129</v>
+        <v>0.06547902398931162</v>
       </c>
       <c r="Q9">
-        <v>1504.041115535979</v>
+        <v>1732.718646766269</v>
       </c>
       <c r="R9">
-        <v>13536.37003982381</v>
+        <v>15594.46782089642</v>
       </c>
       <c r="S9">
-        <v>0.04486406295414064</v>
+        <v>0.03074832619591264</v>
       </c>
       <c r="T9">
-        <v>0.04486406295414064</v>
+        <v>0.03074832619591263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.25483966666666</v>
+        <v>56.36634066666667</v>
       </c>
       <c r="H10">
-        <v>39.76451899999999</v>
+        <v>169.099022</v>
       </c>
       <c r="I10">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="J10">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.5963696666666</v>
+        <v>172.8922906666667</v>
       </c>
       <c r="N10">
-        <v>544.7891089999999</v>
+        <v>518.676872</v>
       </c>
       <c r="O10">
-        <v>0.361289261089317</v>
+        <v>0.3392537931509703</v>
       </c>
       <c r="P10">
-        <v>0.361289261089317</v>
+        <v>0.3392537931509703</v>
       </c>
       <c r="Q10">
-        <v>2407.030763980396</v>
+        <v>9745.305754357687</v>
       </c>
       <c r="R10">
-        <v>21663.27687582357</v>
+        <v>87707.75178921918</v>
       </c>
       <c r="S10">
-        <v>0.07179935349658759</v>
+        <v>0.1729373899063923</v>
       </c>
       <c r="T10">
-        <v>0.0717993534965876</v>
+        <v>0.1729373899063923</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.25483966666666</v>
+        <v>56.36634066666667</v>
       </c>
       <c r="H11">
-        <v>39.76451899999999</v>
+        <v>169.099022</v>
       </c>
       <c r="I11">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="J11">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>611.409592</v>
       </c>
       <c r="O11">
-        <v>0.4054701462774667</v>
+        <v>0.3999079859779965</v>
       </c>
       <c r="P11">
-        <v>0.4054701462774667</v>
+        <v>0.3999079859779965</v>
       </c>
       <c r="Q11">
-        <v>2701.37870420736</v>
+        <v>11487.64044984656</v>
       </c>
       <c r="R11">
-        <v>24312.40833786624</v>
+        <v>103388.764048619</v>
       </c>
       <c r="S11">
-        <v>0.08057946222124715</v>
+        <v>0.2038563597341434</v>
       </c>
       <c r="T11">
-        <v>0.08057946222124716</v>
+        <v>0.2038563597341434</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.25483966666666</v>
+        <v>56.36634066666667</v>
       </c>
       <c r="H12">
-        <v>39.76451899999999</v>
+        <v>169.099022</v>
       </c>
       <c r="I12">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="J12">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.26896899999998</v>
+        <v>99.55997466666668</v>
       </c>
       <c r="N12">
-        <v>264.806907</v>
+        <v>298.679924</v>
       </c>
       <c r="O12">
-        <v>0.175612709910795</v>
+        <v>0.1953591968817216</v>
       </c>
       <c r="P12">
-        <v>0.175612709910795</v>
+        <v>0.1953591968817216</v>
       </c>
       <c r="Q12">
-        <v>1169.99103163697</v>
+        <v>5611.831448826037</v>
       </c>
       <c r="R12">
-        <v>10529.91928473273</v>
+        <v>50506.48303943433</v>
       </c>
       <c r="S12">
-        <v>0.03489967844425281</v>
+        <v>0.09958594505058176</v>
       </c>
       <c r="T12">
-        <v>0.03489967844425282</v>
+        <v>0.09958594505058176</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.25483966666666</v>
+        <v>56.36634066666667</v>
       </c>
       <c r="H13">
-        <v>39.76451899999999</v>
+        <v>169.099022</v>
       </c>
       <c r="I13">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="J13">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.96574966666667</v>
+        <v>33.36976233333333</v>
       </c>
       <c r="N13">
-        <v>86.897249</v>
+        <v>100.109287</v>
       </c>
       <c r="O13">
-        <v>0.0576278827224213</v>
+        <v>0.06547902398931163</v>
       </c>
       <c r="P13">
-        <v>0.05762788272242129</v>
+        <v>0.06547902398931162</v>
       </c>
       <c r="Q13">
-        <v>383.9363676564701</v>
+        <v>1880.931391646368</v>
       </c>
       <c r="R13">
-        <v>3455.42730890823</v>
+        <v>16928.38252481731</v>
       </c>
       <c r="S13">
-        <v>0.01145244314866066</v>
+        <v>0.03337846689098166</v>
       </c>
       <c r="T13">
-        <v>0.01145244314866066</v>
+        <v>0.03337846689098165</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05191500000000001</v>
+        <v>0.171671</v>
       </c>
       <c r="H14">
-        <v>0.155745</v>
+        <v>0.5150129999999999</v>
       </c>
       <c r="I14">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="J14">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>181.5963696666666</v>
+        <v>172.8922906666667</v>
       </c>
       <c r="N14">
-        <v>544.7891089999999</v>
+        <v>518.676872</v>
       </c>
       <c r="O14">
-        <v>0.361289261089317</v>
+        <v>0.3392537931509703</v>
       </c>
       <c r="P14">
-        <v>0.361289261089317</v>
+        <v>0.3392537931509703</v>
       </c>
       <c r="Q14">
-        <v>9.427575531245001</v>
+        <v>29.68059243103733</v>
       </c>
       <c r="R14">
-        <v>84.848179781205</v>
+        <v>267.125331879336</v>
       </c>
       <c r="S14">
-        <v>0.0002812152791368113</v>
+        <v>0.0005267032472125168</v>
       </c>
       <c r="T14">
-        <v>0.0002812152791368113</v>
+        <v>0.0005267032472125168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05191500000000001</v>
+        <v>0.171671</v>
       </c>
       <c r="H15">
-        <v>0.155745</v>
+        <v>0.5150129999999999</v>
       </c>
       <c r="I15">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="J15">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>611.409592</v>
       </c>
       <c r="O15">
-        <v>0.4054701462774667</v>
+        <v>0.3999079859779965</v>
       </c>
       <c r="P15">
-        <v>0.4054701462774667</v>
+        <v>0.3999079859779965</v>
       </c>
       <c r="Q15">
-        <v>10.58044298956</v>
+        <v>34.98709868941067</v>
       </c>
       <c r="R15">
-        <v>95.22398690604001</v>
+        <v>314.8838882046959</v>
       </c>
       <c r="S15">
-        <v>0.0003156041782788355</v>
+        <v>0.0006208709793470028</v>
       </c>
       <c r="T15">
-        <v>0.0003156041782788355</v>
+        <v>0.0006208709793470028</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05191500000000001</v>
+        <v>0.171671</v>
       </c>
       <c r="H16">
-        <v>0.155745</v>
+        <v>0.5150129999999999</v>
       </c>
       <c r="I16">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="J16">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.26896899999998</v>
+        <v>99.55997466666668</v>
       </c>
       <c r="N16">
-        <v>264.806907</v>
+        <v>298.679924</v>
       </c>
       <c r="O16">
-        <v>0.175612709910795</v>
+        <v>0.1953591968817216</v>
       </c>
       <c r="P16">
-        <v>0.175612709910795</v>
+        <v>0.1953591968817216</v>
       </c>
       <c r="Q16">
-        <v>4.582483525635</v>
+        <v>17.09156041100134</v>
       </c>
       <c r="R16">
-        <v>41.242351730715</v>
+        <v>153.824043699012</v>
       </c>
       <c r="S16">
-        <v>0.0001366909636025059</v>
+        <v>0.0003033019098025017</v>
       </c>
       <c r="T16">
-        <v>0.0001366909636025059</v>
+        <v>0.0003033019098025017</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05191500000000001</v>
+        <v>0.171671</v>
       </c>
       <c r="H17">
-        <v>0.155745</v>
+        <v>0.5150129999999999</v>
       </c>
       <c r="I17">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="J17">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.96574966666667</v>
+        <v>33.36976233333333</v>
       </c>
       <c r="N17">
-        <v>86.897249</v>
+        <v>100.109287</v>
       </c>
       <c r="O17">
-        <v>0.0576278827224213</v>
+        <v>0.06547902398931163</v>
       </c>
       <c r="P17">
-        <v>0.05762788272242129</v>
+        <v>0.06547902398931162</v>
       </c>
       <c r="Q17">
-        <v>1.503756893945</v>
+        <v>5.728620469525667</v>
       </c>
       <c r="R17">
-        <v>13.533812045505</v>
+        <v>51.55758422573099</v>
       </c>
       <c r="S17">
-        <v>4.485558490442585E-05</v>
+        <v>0.0001016584493843207</v>
       </c>
       <c r="T17">
-        <v>4.485558490442584E-05</v>
+        <v>0.0001016584493843207</v>
       </c>
     </row>
   </sheetData>
